--- a/Copy of Robbie_Robot_Shop_Scrum.xlsx
+++ b/Copy of Robbie_Robot_Shop_Scrum.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTA\CSE 1325\HW5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTA\CSE 1325\HW5\CSE1325HW5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15750" windowHeight="8550" tabRatio="650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15750" windowHeight="8550" tabRatio="650"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="118">
   <si>
     <t>Product Name:</t>
   </si>
@@ -318,9 +318,6 @@
     <t>Gaganjeet Singh</t>
   </si>
   <si>
-    <t>1000GOOD JOB</t>
-  </si>
-  <si>
     <t>UML</t>
   </si>
   <si>
@@ -370,6 +367,15 @@
   </si>
   <si>
     <t>Not to be confused with UPPERCASE DIAGRAMS</t>
+  </si>
+  <si>
+    <t>Soon (tm)</t>
+  </si>
+  <si>
+    <t>MJ</t>
+  </si>
+  <si>
+    <t>Mr. Jeet (Michael Jeetson)</t>
   </si>
 </sst>
 </file>
@@ -653,11 +659,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1412175184"/>
-        <c:axId val="-1412181712"/>
+        <c:axId val="-210891936"/>
+        <c:axId val="-210894112"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1412175184"/>
+        <c:axId val="-210891936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -731,7 +737,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1412181712"/>
+        <c:crossAx val="-210894112"/>
         <c:crossesAt val="0"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -741,7 +747,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1412181712"/>
+        <c:axId val="-210894112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -825,7 +831,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1412175184"/>
+        <c:crossAx val="-210891936"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -985,11 +991,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1412178448"/>
-        <c:axId val="-1413437264"/>
+        <c:axId val="-210890848"/>
+        <c:axId val="-165708192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1412178448"/>
+        <c:axId val="-210890848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1063,7 +1069,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1413437264"/>
+        <c:crossAx val="-165708192"/>
         <c:crossesAt val="0"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1073,7 +1079,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1413437264"/>
+        <c:axId val="-165708192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1157,7 +1163,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1412178448"/>
+        <c:crossAx val="-210890848"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1632,8 +1638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1758,7 +1764,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1771,7 +1777,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2300,8 +2306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2517,80 +2523,80 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" t="s">
         <v>100</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" t="s">
         <v>101</v>
-      </c>
-      <c r="C16" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" t="s">
-        <v>102</v>
       </c>
       <c r="E16" t="s">
         <v>94</v>
       </c>
       <c r="F16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" t="s">
+        <v>115</v>
+      </c>
+      <c r="H16" t="s">
         <v>103</v>
-      </c>
-      <c r="G16" t="s">
-        <v>109</v>
-      </c>
-      <c r="H16" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" t="s">
         <v>105</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" t="s">
         <v>106</v>
-      </c>
-      <c r="C17" t="s">
-        <v>99</v>
-      </c>
-      <c r="D17" t="s">
-        <v>107</v>
       </c>
       <c r="E17" t="s">
         <v>94</v>
       </c>
       <c r="F17" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" t="s">
         <v>108</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>109</v>
-      </c>
-      <c r="H17" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" t="s">
         <v>111</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" t="s">
         <v>112</v>
-      </c>
-      <c r="C18" t="s">
-        <v>99</v>
-      </c>
-      <c r="D18" t="s">
-        <v>113</v>
       </c>
       <c r="E18" t="s">
         <v>94</v>
       </c>
       <c r="F18" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" t="s">
+        <v>108</v>
+      </c>
+      <c r="H18" t="s">
         <v>114</v>
-      </c>
-      <c r="G18" t="s">
-        <v>109</v>
-      </c>
-      <c r="H18" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/Copy of Robbie_Robot_Shop_Scrum.xlsx
+++ b/Copy of Robbie_Robot_Shop_Scrum.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTA\CSE 1325\HW5\CSE1325HW5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeet\OneDrive for Business\Cse 1325\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15750" windowHeight="8550" tabRatio="650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15750" windowHeight="8550" tabRatio="650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint NN Backlog" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="131">
   <si>
     <t>Product Name:</t>
   </si>
@@ -372,20 +372,59 @@
     <t>Soon (tm)</t>
   </si>
   <si>
-    <t>MJ</t>
-  </si>
-  <si>
-    <t>Mr. Jeet (Michael Jeetson)</t>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>RPCPP</t>
+  </si>
+  <si>
+    <t>RPH</t>
+  </si>
+  <si>
+    <t>CPP</t>
+  </si>
+  <si>
+    <t>HEADER</t>
+  </si>
+  <si>
+    <t>Class header</t>
+  </si>
+  <si>
+    <t>RP-Class</t>
+  </si>
+  <si>
+    <t>RP-Header</t>
+  </si>
+  <si>
+    <t>RobotPart class</t>
+  </si>
+  <si>
+    <t>RobotPart Header</t>
+  </si>
+  <si>
+    <t>InProgress</t>
+  </si>
+  <si>
+    <t>CNTRL</t>
+  </si>
+  <si>
+    <t>CL-Controller</t>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <t>controller</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy\ hh:mm\ AM/PM"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -418,6 +457,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -445,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -465,6 +510,7 @@
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -551,7 +597,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -649,6 +695,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9400-4542-B103-1F5FC6E21C33}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -883,7 +934,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -981,6 +1032,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6484-4794-B3F3-6195D38BBF03}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1638,8 +1694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1776,8 +1832,8 @@
       <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>117</v>
+      <c r="B11" s="1">
+        <v>1001070011</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -2304,10 +2360,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2599,14 +2655,83 @@
         <v>114</v>
       </c>
     </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" t="s">
+        <v>119</v>
+      </c>
+      <c r="D19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" t="s">
+        <v>121</v>
+      </c>
+      <c r="E20" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" t="s">
+        <v>125</v>
+      </c>
+      <c r="G20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" t="s">
+        <v>128</v>
+      </c>
+      <c r="C21" t="s">
+        <v>129</v>
+      </c>
+      <c r="D21" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" t="s">
+        <v>129</v>
+      </c>
+      <c r="G21" t="s">
+        <v>126</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Copy of Robbie_Robot_Shop_Scrum.xlsx
+++ b/Copy of Robbie_Robot_Shop_Scrum.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeet\OneDrive for Business\Cse 1325\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UTA\CSE 1325\HW5\CSE1325HW5\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15750" windowHeight="8550" tabRatio="650" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15750" windowHeight="8550" tabRatio="650"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint NN Backlog" sheetId="2" r:id="rId2"/>
+    <sheet name="Sprint NN Backlog (2)" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="154">
   <si>
     <t>Product Name:</t>
   </si>
@@ -348,9 +349,6 @@
     <t>UML Class Diagram</t>
   </si>
   <si>
-    <t>Nope.jpg</t>
-  </si>
-  <si>
     <t>Classy not sassy</t>
   </si>
   <si>
@@ -369,27 +367,9 @@
     <t>Not to be confused with UPPERCASE DIAGRAMS</t>
   </si>
   <si>
-    <t>Soon (tm)</t>
-  </si>
-  <si>
     <t>GS</t>
   </si>
   <si>
-    <t>RPCPP</t>
-  </si>
-  <si>
-    <t>RPH</t>
-  </si>
-  <si>
-    <t>CPP</t>
-  </si>
-  <si>
-    <t>HEADER</t>
-  </si>
-  <si>
-    <t>Class header</t>
-  </si>
-  <si>
     <t>RP-Class</t>
   </si>
   <si>
@@ -405,22 +385,112 @@
     <t>InProgress</t>
   </si>
   <si>
-    <t>CNTRL</t>
-  </si>
-  <si>
     <t>CL-Controller</t>
   </si>
   <si>
     <t>Controller</t>
   </si>
   <si>
-    <t>controller</t>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>RobotPart</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>RP_H</t>
+  </si>
+  <si>
+    <t>RP_C</t>
+  </si>
+  <si>
+    <t>CTRL</t>
+  </si>
+  <si>
+    <t>SA_C</t>
+  </si>
+  <si>
+    <t>SA-Class</t>
+  </si>
+  <si>
+    <t>Complete</t>
+  </si>
+  <si>
+    <t>SalesAssoc</t>
+  </si>
+  <si>
+    <t>Controller Main</t>
+  </si>
+  <si>
+    <t>SalesAssoc Class</t>
+  </si>
+  <si>
+    <t>SA_H</t>
+  </si>
+  <si>
+    <t>SA-Header</t>
+  </si>
+  <si>
+    <t>SalesAssoc Header</t>
+  </si>
+  <si>
+    <t>CUST_C</t>
+  </si>
+  <si>
+    <t>CUST_Class</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Customer Class</t>
+  </si>
+  <si>
+    <t>CUST_H</t>
+  </si>
+  <si>
+    <t>Cust_Header</t>
+  </si>
+  <si>
+    <t>Customer Header</t>
+  </si>
+  <si>
+    <t>ORD_H</t>
+  </si>
+  <si>
+    <t>ORD_C</t>
+  </si>
+  <si>
+    <t>Order</t>
+  </si>
+  <si>
+    <t>Order Class</t>
+  </si>
+  <si>
+    <t>Revisit</t>
+  </si>
+  <si>
+    <t>Dependency: Order Header</t>
+  </si>
+  <si>
+    <t>Order_Class</t>
+  </si>
+  <si>
+    <t>Order_Header</t>
+  </si>
+  <si>
+    <t>Order Header</t>
+  </si>
+  <si>
+    <t>Dependency: RobotModel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yy\ hh:mm\ AM/PM"/>
   </numFmts>
@@ -597,7 +667,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -695,7 +765,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9400-4542-B103-1F5FC6E21C33}"/>
             </c:ext>
@@ -710,11 +780,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-210891936"/>
-        <c:axId val="-210894112"/>
+        <c:axId val="671124960"/>
+        <c:axId val="671120064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-210891936"/>
+        <c:axId val="671124960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -788,7 +858,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-210894112"/>
+        <c:crossAx val="671120064"/>
         <c:crossesAt val="0"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -798,7 +868,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-210894112"/>
+        <c:axId val="671120064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -882,7 +952,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-210891936"/>
+        <c:crossAx val="671124960"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -934,7 +1004,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1028,11 +1098,29 @@
                 <c:pt idx="1">
                   <c:v>18</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6484-4794-B3F3-6195D38BBF03}"/>
             </c:ext>
@@ -1047,11 +1135,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-210890848"/>
-        <c:axId val="-165708192"/>
+        <c:axId val="671130944"/>
+        <c:axId val="671131488"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-210890848"/>
+        <c:axId val="671130944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1125,7 +1213,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-165708192"/>
+        <c:crossAx val="671131488"/>
         <c:crossesAt val="0"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1135,7 +1223,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-165708192"/>
+        <c:axId val="671131488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1219,7 +1307,362 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-210890848"/>
+        <c:crossAx val="671130944"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="B3B3B3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="6350">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial"/>
+          <a:ea typeface="Arial"/>
+          <a:cs typeface="Arial"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter alignWithMargins="0"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.51180555555555551" footer="0.51180555555555551"/>
+    <c:pageSetup firstPageNumber="0"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sprint Burn Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.32172622386946714"/>
+          <c:y val="4.6393518700593855E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17158731939704916"/>
+          <c:y val="0.32475463090415702"/>
+          <c:w val="0.77750504101787898"/>
+          <c:h val="0.32475463090415702"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint NN Backlog (2)'!$B$6:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6484-4794-B3F3-6195D38BBF03}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="345754144"/>
+        <c:axId val="345754688"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="345754144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
+                    <a:cs typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tasks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.5093998544599897"/>
+              <c:y val="0.80930915955480398"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="B3B3B3"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="345754688"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="345754688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:srgbClr val="B3B3B3"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
+                    <a:cs typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Days</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="4.289682984926229E-2"/>
+              <c:y val="0.40207716207181343"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="B3B3B3"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="345754144"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1325,6 +1768,43 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2049" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3248025</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1694,8 +2174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1820,7 +2300,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2360,10 +2840,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2473,7 +2953,9 @@
       <c r="A8" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="10"/>
+      <c r="B8" s="10">
+        <v>18</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -2485,7 +2967,9 @@
       <c r="A9" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B9" s="10"/>
+      <c r="B9" s="10">
+        <v>18</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -2497,7 +2981,9 @@
       <c r="A10" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B10" s="10"/>
+      <c r="B10" s="10">
+        <v>18</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -2509,7 +2995,9 @@
       <c r="A11" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B11" s="10"/>
+      <c r="B11" s="10">
+        <v>18</v>
+      </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -2521,7 +3009,9 @@
       <c r="A12" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="10"/>
+      <c r="B12" s="10">
+        <v>18</v>
+      </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -2533,7 +3023,9 @@
       <c r="A13" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B13" s="10"/>
+      <c r="B13" s="10">
+        <v>18</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -2597,7 +3089,7 @@
         <v>102</v>
       </c>
       <c r="G16" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="H16" t="s">
         <v>103</v>
@@ -2623,82 +3115,82 @@
         <v>107</v>
       </c>
       <c r="G17" t="s">
+        <v>130</v>
+      </c>
+      <c r="H17" t="s">
         <v>108</v>
-      </c>
-      <c r="H17" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" t="s">
         <v>110</v>
-      </c>
-      <c r="B18" t="s">
-        <v>111</v>
       </c>
       <c r="C18" t="s">
         <v>98</v>
       </c>
       <c r="D18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E18" t="s">
         <v>94</v>
       </c>
       <c r="F18" t="s">
+        <v>112</v>
+      </c>
+      <c r="G18" t="s">
+        <v>130</v>
+      </c>
+      <c r="H18" t="s">
         <v>113</v>
-      </c>
-      <c r="G18" t="s">
-        <v>108</v>
-      </c>
-      <c r="H18" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" t="s">
         <v>117</v>
       </c>
-      <c r="B19" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="G19" t="s">
         <v>119</v>
-      </c>
-      <c r="D19" t="s">
-        <v>106</v>
-      </c>
-      <c r="E19" t="s">
-        <v>116</v>
-      </c>
-      <c r="F19" t="s">
-        <v>124</v>
-      </c>
-      <c r="G19" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" t="s">
         <v>118</v>
       </c>
-      <c r="B20" t="s">
-        <v>123</v>
-      </c>
-      <c r="C20" t="s">
-        <v>120</v>
-      </c>
-      <c r="D20" t="s">
-        <v>121</v>
-      </c>
-      <c r="E20" t="s">
-        <v>116</v>
-      </c>
-      <c r="F20" t="s">
-        <v>125</v>
-      </c>
       <c r="G20" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -2706,22 +3198,30 @@
         <v>127</v>
       </c>
       <c r="B21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D21" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" t="s">
+        <v>114</v>
+      </c>
+      <c r="F21" t="s">
+        <v>121</v>
+      </c>
+      <c r="G21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C21" t="s">
+      <c r="B22" t="s">
         <v>129</v>
-      </c>
-      <c r="D21" t="s">
-        <v>130</v>
-      </c>
-      <c r="E21" t="s">
-        <v>116</v>
-      </c>
-      <c r="F21" t="s">
-        <v>129</v>
-      </c>
-      <c r="G21" t="s">
-        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2734,4 +3234,544 @@
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="51.85546875" customWidth="1"/>
+    <col min="8" max="8" width="51.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="9">
+        <v>42650</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="9">
+        <v>42655</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="10">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="10">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="10">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="10">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="10">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="10">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="10">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="10">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" t="s">
+        <v>112</v>
+      </c>
+      <c r="G18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D21" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" t="s">
+        <v>114</v>
+      </c>
+      <c r="F21" t="s">
+        <v>132</v>
+      </c>
+      <c r="G21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" t="s">
+        <v>133</v>
+      </c>
+      <c r="G22" t="s">
+        <v>148</v>
+      </c>
+      <c r="H22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" t="s">
+        <v>136</v>
+      </c>
+      <c r="G23" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" t="s">
+        <v>140</v>
+      </c>
+      <c r="G24" t="s">
+        <v>148</v>
+      </c>
+      <c r="H24" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E26" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" t="s">
+        <v>147</v>
+      </c>
+      <c r="G26" t="s">
+        <v>148</v>
+      </c>
+      <c r="H26" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" t="s">
+        <v>146</v>
+      </c>
+      <c r="E27" t="s">
+        <v>94</v>
+      </c>
+      <c r="F27" t="s">
+        <v>152</v>
+      </c>
+      <c r="G27" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <conditionalFormatting sqref="E16:E45 F26:G27 H26">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Copy of Robbie_Robot_Shop_Scrum.xlsx
+++ b/Copy of Robbie_Robot_Shop_Scrum.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15750" windowHeight="8550" tabRatio="650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15750" windowHeight="8550" tabRatio="650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
     <sheet name="Sprint NN Backlog" sheetId="2" r:id="rId2"/>
     <sheet name="Sprint NN Backlog (2)" sheetId="3" r:id="rId3"/>
+    <sheet name="Sprint NN Backlog (3)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="163">
   <si>
     <t>Product Name:</t>
   </si>
@@ -485,6 +486,33 @@
   </si>
   <si>
     <t>Dependency: RobotModel</t>
+  </si>
+  <si>
+    <t>SHOP_C</t>
+  </si>
+  <si>
+    <t>Shop_Class</t>
+  </si>
+  <si>
+    <t>Shop</t>
+  </si>
+  <si>
+    <t>Shop Class</t>
+  </si>
+  <si>
+    <t>Shop_H</t>
+  </si>
+  <si>
+    <t>Shop_Header</t>
+  </si>
+  <si>
+    <t>Shop Header</t>
+  </si>
+  <si>
+    <t>Dependency: Robot Model, Report</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -780,11 +808,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="671124960"/>
-        <c:axId val="671120064"/>
+        <c:axId val="368660128"/>
+        <c:axId val="368662304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="671124960"/>
+        <c:axId val="368660128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -858,7 +886,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="671120064"/>
+        <c:crossAx val="368662304"/>
         <c:crossesAt val="0"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -868,7 +896,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="671120064"/>
+        <c:axId val="368662304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -952,7 +980,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="671124960"/>
+        <c:crossAx val="368660128"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1135,11 +1163,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="671130944"/>
-        <c:axId val="671131488"/>
+        <c:axId val="368657952"/>
+        <c:axId val="368654144"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="671130944"/>
+        <c:axId val="368657952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1213,7 +1241,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="671131488"/>
+        <c:crossAx val="368654144"/>
         <c:crossesAt val="0"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1223,7 +1251,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="671131488"/>
+        <c:axId val="368654144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1307,7 +1335,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="671130944"/>
+        <c:crossAx val="368657952"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1490,11 +1518,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="345754144"/>
-        <c:axId val="345754688"/>
+        <c:axId val="368657408"/>
+        <c:axId val="368660672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="345754144"/>
+        <c:axId val="368657408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1568,7 +1596,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="345754688"/>
+        <c:crossAx val="368660672"/>
         <c:crossesAt val="0"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1578,7 +1606,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="345754688"/>
+        <c:axId val="368660672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1662,7 +1690,362 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="345754144"/>
+        <c:crossAx val="368657408"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:srgbClr val="B3B3B3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="FFFFFF"/>
+    </a:solidFill>
+    <a:ln w="6350">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Arial"/>
+          <a:ea typeface="Arial"/>
+          <a:cs typeface="Arial"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter alignWithMargins="0"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.51180555555555551" footer="0.51180555555555551"/>
+    <c:pageSetup firstPageNumber="0"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sprint Burn Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.32172622386946714"/>
+          <c:y val="4.6393518700593855E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17158731939704916"/>
+          <c:y val="0.32475463090415702"/>
+          <c:w val="0.77750504101787898"/>
+          <c:h val="0.32475463090415702"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint NN Backlog (3)'!$B$6:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6484-4794-B3F3-6195D38BBF03}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="431201504"/>
+        <c:axId val="431206400"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="431201504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
+                    <a:cs typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tasks</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.5093998544599897"/>
+              <c:y val="0.80930915955480398"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="B3B3B3"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="431206400"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="431206400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="3175">
+              <a:solidFill>
+                <a:srgbClr val="B3B3B3"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial"/>
+                    <a:ea typeface="Arial"/>
+                    <a:cs typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Days</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="4.289682984926229E-2"/>
+              <c:y val="0.40207716207181343"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="3175">
+            <a:solidFill>
+              <a:srgbClr val="B3B3B3"/>
+            </a:solidFill>
+            <a:prstDash val="solid"/>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" vert="horz"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="Arial"/>
+                <a:ea typeface="Arial"/>
+                <a:cs typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="431201504"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1788,6 +2171,43 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>3248025</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
@@ -2174,7 +2594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -3774,4 +4194,587 @@
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" customWidth="1"/>
+    <col min="6" max="6" width="51.85546875" customWidth="1"/>
+    <col min="8" max="8" width="51.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="9">
+        <v>42656</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="9">
+        <v>42663</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="10">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="10">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="10">
+        <v>18</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="10">
+        <v>18</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="10">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="10">
+        <v>18</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="10">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="10">
+        <v>16</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" t="s">
+        <v>106</v>
+      </c>
+      <c r="E17" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" t="s">
+        <v>112</v>
+      </c>
+      <c r="G18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B19" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F19" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" t="s">
+        <v>122</v>
+      </c>
+      <c r="D20" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" t="s">
+        <v>118</v>
+      </c>
+      <c r="G20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C21" t="s">
+        <v>124</v>
+      </c>
+      <c r="D21" t="s">
+        <v>121</v>
+      </c>
+      <c r="E21" t="s">
+        <v>114</v>
+      </c>
+      <c r="F21" t="s">
+        <v>132</v>
+      </c>
+      <c r="G21" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B22" t="s">
+        <v>129</v>
+      </c>
+      <c r="C22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" t="s">
+        <v>131</v>
+      </c>
+      <c r="E22" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" t="s">
+        <v>133</v>
+      </c>
+      <c r="G22" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C23" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23" t="s">
+        <v>94</v>
+      </c>
+      <c r="F23" t="s">
+        <v>136</v>
+      </c>
+      <c r="G23" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F24" t="s">
+        <v>140</v>
+      </c>
+      <c r="G24" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B25" t="s">
+        <v>142</v>
+      </c>
+      <c r="C25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D25" t="s">
+        <v>139</v>
+      </c>
+      <c r="E25" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" t="s">
+        <v>143</v>
+      </c>
+      <c r="G25" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" t="s">
+        <v>150</v>
+      </c>
+      <c r="C26" t="s">
+        <v>106</v>
+      </c>
+      <c r="D26" t="s">
+        <v>146</v>
+      </c>
+      <c r="E26" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" t="s">
+        <v>147</v>
+      </c>
+      <c r="G26" t="s">
+        <v>148</v>
+      </c>
+      <c r="H26" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B27" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" t="s">
+        <v>146</v>
+      </c>
+      <c r="E27" t="s">
+        <v>94</v>
+      </c>
+      <c r="F27" t="s">
+        <v>152</v>
+      </c>
+      <c r="G27" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B28" t="s">
+        <v>155</v>
+      </c>
+      <c r="C28" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" t="s">
+        <v>156</v>
+      </c>
+      <c r="E28" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" t="s">
+        <v>157</v>
+      </c>
+      <c r="G28" t="s">
+        <v>148</v>
+      </c>
+      <c r="H28" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B29" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" t="s">
+        <v>156</v>
+      </c>
+      <c r="E29" t="s">
+        <v>94</v>
+      </c>
+      <c r="F29" t="s">
+        <v>160</v>
+      </c>
+      <c r="G29" t="s">
+        <v>148</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <conditionalFormatting sqref="E16:E45 H26 F26:G29 H28">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/Copy of Robbie_Robot_Shop_Scrum.xlsx
+++ b/Copy of Robbie_Robot_Shop_Scrum.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15750" windowHeight="8550" tabRatio="650" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15750" windowHeight="8550" tabRatio="650"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="163">
   <si>
     <t>Product Name:</t>
   </si>
@@ -808,11 +808,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="368660128"/>
-        <c:axId val="368662304"/>
+        <c:axId val="-70572400"/>
+        <c:axId val="-70567504"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="368660128"/>
+        <c:axId val="-70572400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -886,7 +886,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368662304"/>
+        <c:crossAx val="-70567504"/>
         <c:crossesAt val="0"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -896,7 +896,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="368662304"/>
+        <c:axId val="-70567504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -980,7 +980,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368660128"/>
+        <c:crossAx val="-70572400"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1163,11 +1163,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="368657952"/>
-        <c:axId val="368654144"/>
+        <c:axId val="-70564240"/>
+        <c:axId val="-70560432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="368657952"/>
+        <c:axId val="-70564240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1241,7 +1241,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368654144"/>
+        <c:crossAx val="-70560432"/>
         <c:crossesAt val="0"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1251,7 +1251,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="368654144"/>
+        <c:axId val="-70560432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1335,7 +1335,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368657952"/>
+        <c:crossAx val="-70564240"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1497,7 +1497,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1518,11 +1518,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="368657408"/>
-        <c:axId val="368660672"/>
+        <c:axId val="-70558800"/>
+        <c:axId val="-70563696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="368657408"/>
+        <c:axId val="-70558800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1596,7 +1596,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368660672"/>
+        <c:crossAx val="-70563696"/>
         <c:crossesAt val="0"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1606,7 +1606,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="368660672"/>
+        <c:axId val="-70563696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1690,7 +1690,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="368657408"/>
+        <c:crossAx val="-70558800"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1852,7 +1852,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1873,11 +1873,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="431201504"/>
-        <c:axId val="431206400"/>
+        <c:axId val="-70563152"/>
+        <c:axId val="-70559344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="431201504"/>
+        <c:axId val="-70563152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1951,7 +1951,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="431206400"/>
+        <c:crossAx val="-70559344"/>
         <c:crossesAt val="0"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1961,7 +1961,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="431206400"/>
+        <c:axId val="-70559344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2045,7 +2045,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="431201504"/>
+        <c:crossAx val="-70563152"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2592,10 +2592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2792,7 +2792,7 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -2803,7 +2803,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -2814,7 +2814,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -2825,7 +2825,7 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2834,7 +2834,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -2848,7 +2848,7 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -2861,7 +2861,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>8</v>
       </c>
@@ -2872,7 +2872,7 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -2883,7 +2883,7 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2892,7 +2892,7 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2903,7 +2903,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2914,7 +2914,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
         <v>12</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>1</v>
       </c>
@@ -2956,8 +2956,14 @@
       <c r="H29" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29" t="s">
+        <v>114</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>2</v>
       </c>
@@ -2973,8 +2979,14 @@
       <c r="H30" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30" t="s">
+        <v>114</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>3</v>
       </c>
@@ -2990,8 +3002,14 @@
       <c r="H31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31" t="s">
+        <v>114</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>4</v>
       </c>
@@ -3007,8 +3025,14 @@
       <c r="H32" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I32" t="s">
+        <v>94</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>5</v>
       </c>
@@ -3025,7 +3049,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="2:8" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:10" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B34">
         <v>6</v>
       </c>
@@ -3041,8 +3065,14 @@
       <c r="H34" s="5" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I34" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="J34" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B35">
         <v>7</v>
       </c>
@@ -3058,8 +3088,14 @@
       <c r="H35" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="I35" t="s">
+        <v>94</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>8</v>
       </c>
@@ -3075,8 +3111,11 @@
       <c r="H36" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>9</v>
       </c>
@@ -3092,8 +3131,11 @@
       <c r="H37" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>10</v>
       </c>
@@ -3109,8 +3151,11 @@
       <c r="H38" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>11</v>
       </c>
@@ -3127,7 +3172,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>12</v>
       </c>
@@ -3143,8 +3188,11 @@
       <c r="H40" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>13</v>
       </c>
@@ -3160,8 +3208,11 @@
       <c r="H41" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>14</v>
       </c>
@@ -3178,7 +3229,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>15</v>
       </c>
@@ -3195,7 +3246,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>16</v>
       </c>
@@ -3212,7 +3263,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>17</v>
       </c>
@@ -3229,7 +3280,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="2:8" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>18</v>
       </c>
@@ -3661,7 +3712,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3842,7 +3893,7 @@
         <v>87</v>
       </c>
       <c r="B13" s="10">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -4200,8 +4251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4382,7 +4433,7 @@
         <v>87</v>
       </c>
       <c r="B13" s="10">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>

--- a/Copy of Robbie_Robot_Shop_Scrum.xlsx
+++ b/Copy of Robbie_Robot_Shop_Scrum.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15750" windowHeight="8550" tabRatio="650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15750" windowHeight="8550" tabRatio="650" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="153">
   <si>
     <t>Product Name:</t>
   </si>
@@ -326,9 +326,6 @@
     <t>MENU</t>
   </si>
   <si>
-    <t>GJ-Menudo</t>
-  </si>
-  <si>
     <t>Menu</t>
   </si>
   <si>
@@ -341,9 +338,6 @@
     <t>UML01</t>
   </si>
   <si>
-    <t>UML-Class</t>
-  </si>
-  <si>
     <t>Class</t>
   </si>
   <si>
@@ -356,9 +350,6 @@
     <t>UML02</t>
   </si>
   <si>
-    <t>UML-UseCase</t>
-  </si>
-  <si>
     <t>Use Case</t>
   </si>
   <si>
@@ -371,12 +362,6 @@
     <t>GS</t>
   </si>
   <si>
-    <t>RP-Class</t>
-  </si>
-  <si>
-    <t>RP-Header</t>
-  </si>
-  <si>
     <t>RobotPart class</t>
   </si>
   <si>
@@ -386,9 +371,6 @@
     <t>InProgress</t>
   </si>
   <si>
-    <t>CL-Controller</t>
-  </si>
-  <si>
     <t>Controller</t>
   </si>
   <si>
@@ -413,9 +395,6 @@
     <t>SA_C</t>
   </si>
   <si>
-    <t>SA-Class</t>
-  </si>
-  <si>
     <t>Complete</t>
   </si>
   <si>
@@ -431,18 +410,12 @@
     <t>SA_H</t>
   </si>
   <si>
-    <t>SA-Header</t>
-  </si>
-  <si>
     <t>SalesAssoc Header</t>
   </si>
   <si>
     <t>CUST_C</t>
   </si>
   <si>
-    <t>CUST_Class</t>
-  </si>
-  <si>
     <t>Customer</t>
   </si>
   <si>
@@ -452,9 +425,6 @@
     <t>CUST_H</t>
   </si>
   <si>
-    <t>Cust_Header</t>
-  </si>
-  <si>
     <t>Customer Header</t>
   </si>
   <si>
@@ -476,12 +446,6 @@
     <t>Dependency: Order Header</t>
   </si>
   <si>
-    <t>Order_Class</t>
-  </si>
-  <si>
-    <t>Order_Header</t>
-  </si>
-  <si>
     <t>Order Header</t>
   </si>
   <si>
@@ -491,9 +455,6 @@
     <t>SHOP_C</t>
   </si>
   <si>
-    <t>Shop_Class</t>
-  </si>
-  <si>
     <t>Shop</t>
   </si>
   <si>
@@ -503,16 +464,25 @@
     <t>Shop_H</t>
   </si>
   <si>
-    <t>Shop_Header</t>
-  </si>
-  <si>
     <t>Shop Header</t>
   </si>
   <si>
-    <t>Dependency: Robot Model, Report</t>
-  </si>
-  <si>
-    <t>Test</t>
+    <t>RP</t>
+  </si>
+  <si>
+    <t>RM</t>
+  </si>
+  <si>
+    <t>LOG</t>
+  </si>
+  <si>
+    <t>CUSTORD</t>
+  </si>
+  <si>
+    <t>RPTSA</t>
+  </si>
+  <si>
+    <t>RPTBC</t>
   </si>
 </sst>
 </file>
@@ -789,6 +759,12 @@
                 <c:pt idx="1">
                   <c:v>18</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -808,11 +784,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-70572400"/>
-        <c:axId val="-70567504"/>
+        <c:axId val="1802153008"/>
+        <c:axId val="1802153552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-70572400"/>
+        <c:axId val="1802153008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -886,7 +862,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-70567504"/>
+        <c:crossAx val="1802153552"/>
         <c:crossesAt val="0"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -896,7 +872,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-70567504"/>
+        <c:axId val="1802153552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -980,7 +956,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-70572400"/>
+        <c:crossAx val="1802153008"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1163,11 +1139,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-70564240"/>
-        <c:axId val="-70560432"/>
+        <c:axId val="1802156816"/>
+        <c:axId val="1841397664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-70564240"/>
+        <c:axId val="1802156816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1241,7 +1217,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-70560432"/>
+        <c:crossAx val="1841397664"/>
         <c:crossesAt val="0"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1251,7 +1227,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-70560432"/>
+        <c:axId val="1841397664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1335,7 +1311,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-70564240"/>
+        <c:crossAx val="1802156816"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1518,11 +1494,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-70558800"/>
-        <c:axId val="-70563696"/>
+        <c:axId val="1841404736"/>
+        <c:axId val="1841401472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-70558800"/>
+        <c:axId val="1841404736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1596,7 +1572,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-70563696"/>
+        <c:crossAx val="1841401472"/>
         <c:crossesAt val="0"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1606,7 +1582,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-70563696"/>
+        <c:axId val="1841401472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1690,7 +1666,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-70558800"/>
+        <c:crossAx val="1841404736"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1852,7 +1828,7 @@
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>18</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1873,11 +1849,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-70563152"/>
-        <c:axId val="-70559344"/>
+        <c:axId val="1841400928"/>
+        <c:axId val="1841402016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-70563152"/>
+        <c:axId val="1841400928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1951,7 +1927,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-70559344"/>
+        <c:crossAx val="1841402016"/>
         <c:crossesAt val="0"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1961,7 +1937,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-70559344"/>
+        <c:axId val="1841402016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2045,7 +2021,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-70563152"/>
+        <c:crossAx val="1841400928"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2594,8 +2570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2720,7 +2696,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -2865,7 +2841,9 @@
       <c r="A23" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="1"/>
+      <c r="B23" s="1">
+        <v>18</v>
+      </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -2876,7 +2854,9 @@
       <c r="A24" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="1"/>
+      <c r="B24" s="1">
+        <v>12</v>
+      </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -2941,6 +2921,9 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>147</v>
+      </c>
       <c r="B29">
         <v>1</v>
       </c>
@@ -2957,13 +2940,16 @@
         <v>23</v>
       </c>
       <c r="I29" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>148</v>
+      </c>
       <c r="B30">
         <v>2</v>
       </c>
@@ -2980,13 +2966,16 @@
         <v>26</v>
       </c>
       <c r="I30" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>149</v>
+      </c>
       <c r="B31">
         <v>3</v>
       </c>
@@ -3003,13 +2992,16 @@
         <v>30</v>
       </c>
       <c r="I31" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J31">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>150</v>
+      </c>
       <c r="B32">
         <v>4</v>
       </c>
@@ -3032,7 +3024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B33">
         <v>5</v>
       </c>
@@ -3049,7 +3041,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="2:10" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" s="5" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
+        <v>151</v>
+      </c>
       <c r="B34">
         <v>6</v>
       </c>
@@ -3072,7 +3067,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>152</v>
+      </c>
       <c r="B35">
         <v>7</v>
       </c>
@@ -3095,7 +3093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B36">
         <v>8</v>
       </c>
@@ -3115,7 +3113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B37">
         <v>9</v>
       </c>
@@ -3135,7 +3133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B38">
         <v>10</v>
       </c>
@@ -3155,7 +3153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B39">
         <v>11</v>
       </c>
@@ -3172,7 +3170,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B40">
         <v>12</v>
       </c>
@@ -3192,7 +3190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B41">
         <v>13</v>
       </c>
@@ -3212,7 +3210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B42">
         <v>14</v>
       </c>
@@ -3229,7 +3227,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B43">
         <v>15</v>
       </c>
@@ -3246,7 +3244,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B44">
         <v>16</v>
       </c>
@@ -3263,7 +3261,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B45">
         <v>17</v>
       </c>
@@ -3280,7 +3278,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B46">
         <v>18</v>
       </c>
@@ -3314,7 +3312,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="B16" sqref="B16:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3544,155 +3542,134 @@
       <c r="A16" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B16" t="s">
-        <v>100</v>
-      </c>
       <c r="C16" t="s">
         <v>98</v>
       </c>
       <c r="D16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E16" t="s">
         <v>94</v>
       </c>
       <c r="F16" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" t="s">
+        <v>123</v>
+      </c>
+      <c r="H16" t="s">
         <v>102</v>
-      </c>
-      <c r="G16" t="s">
-        <v>130</v>
-      </c>
-      <c r="H16" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C17" t="s">
         <v>98</v>
       </c>
       <c r="D17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E17" t="s">
         <v>94</v>
       </c>
       <c r="F17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G17" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="H17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C18" t="s">
         <v>98</v>
       </c>
       <c r="D18" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E18" t="s">
         <v>94</v>
       </c>
       <c r="F18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G18" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="H18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="B19" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D19" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E19" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" t="s">
+        <v>112</v>
+      </c>
+      <c r="G19" t="s">
         <v>114</v>
-      </c>
-      <c r="F19" t="s">
-        <v>117</v>
-      </c>
-      <c r="G19" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" t="s">
         <v>116</v>
       </c>
-      <c r="C20" t="s">
-        <v>122</v>
-      </c>
       <c r="D20" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E20" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" t="s">
         <v>114</v>
-      </c>
-      <c r="F20" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="B21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C21" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D21" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E21" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" t="s">
+        <v>115</v>
+      </c>
+      <c r="G21" t="s">
         <v>114</v>
-      </c>
-      <c r="F21" t="s">
-        <v>121</v>
-      </c>
-      <c r="G21" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="B22" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3712,7 +3689,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3942,285 +3919,249 @@
       <c r="A16" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B16" t="s">
-        <v>100</v>
-      </c>
       <c r="C16" t="s">
         <v>98</v>
       </c>
       <c r="D16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E16" t="s">
         <v>94</v>
       </c>
       <c r="F16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G16" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C17" t="s">
         <v>98</v>
       </c>
       <c r="D17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E17" t="s">
         <v>94</v>
       </c>
       <c r="F17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="G17" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C18" t="s">
         <v>98</v>
       </c>
       <c r="D18" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E18" t="s">
         <v>94</v>
       </c>
       <c r="F18" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G18" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="B19" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D19" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E19" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" t="s">
+        <v>112</v>
+      </c>
+      <c r="G19" t="s">
         <v>114</v>
-      </c>
-      <c r="F19" t="s">
-        <v>117</v>
-      </c>
-      <c r="G19" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" t="s">
         <v>116</v>
       </c>
-      <c r="C20" t="s">
-        <v>122</v>
-      </c>
       <c r="D20" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="E20" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" t="s">
         <v>114</v>
-      </c>
-      <c r="F20" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="B21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C21" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="D21" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E21" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" t="s">
+        <v>125</v>
+      </c>
+      <c r="G21" t="s">
         <v>114</v>
-      </c>
-      <c r="F21" t="s">
-        <v>132</v>
-      </c>
-      <c r="G21" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="B22" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D22" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E22" t="s">
         <v>94</v>
       </c>
       <c r="F22" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="G22" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="H22" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="B23" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C23" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D23" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E23" t="s">
         <v>94</v>
       </c>
       <c r="F23" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="G23" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="B24" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C24" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D24" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E24" t="s">
         <v>94</v>
       </c>
       <c r="F24" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="G24" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="H24" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="B25" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C25" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D25" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E25" t="s">
         <v>94</v>
       </c>
       <c r="F25" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="G25" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="B26" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="C26" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D26" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E26" t="s">
         <v>94</v>
       </c>
       <c r="F26" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="G26" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="H26" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B27" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D27" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E27" t="s">
         <v>94</v>
       </c>
       <c r="F27" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="G27" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -4249,10 +4190,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4433,7 +4374,7 @@
         <v>87</v>
       </c>
       <c r="B13" s="10">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -4482,333 +4423,360 @@
       <c r="A16" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B16" t="s">
-        <v>100</v>
-      </c>
       <c r="C16" t="s">
         <v>98</v>
       </c>
       <c r="D16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E16" t="s">
         <v>94</v>
       </c>
       <c r="F16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C17" t="s">
         <v>98</v>
       </c>
       <c r="D17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E17" t="s">
         <v>94</v>
       </c>
       <c r="F17" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="G17" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B18" t="s">
-        <v>110</v>
       </c>
       <c r="C18" t="s">
         <v>98</v>
       </c>
       <c r="D18" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E18" t="s">
         <v>94</v>
       </c>
       <c r="F18" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" t="s">
         <v>112</v>
       </c>
-      <c r="G18" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="G19" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" t="s">
         <v>115</v>
       </c>
-      <c r="C19" t="s">
-        <v>106</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E21" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" t="s">
+        <v>125</v>
+      </c>
+      <c r="G21" t="s">
         <v>123</v>
       </c>
-      <c r="E19" t="s">
-        <v>114</v>
-      </c>
-      <c r="F19" t="s">
-        <v>117</v>
-      </c>
-      <c r="G19" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B20" t="s">
-        <v>116</v>
-      </c>
-      <c r="C20" t="s">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D20" t="s">
-        <v>123</v>
-      </c>
-      <c r="E20" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="B21" t="s">
-        <v>120</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
+        <v>104</v>
+      </c>
+      <c r="D22" t="s">
         <v>124</v>
-      </c>
-      <c r="D21" t="s">
-        <v>121</v>
-      </c>
-      <c r="E21" t="s">
-        <v>114</v>
-      </c>
-      <c r="F21" t="s">
-        <v>132</v>
-      </c>
-      <c r="G21" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="B22" t="s">
-        <v>129</v>
-      </c>
-      <c r="C22" t="s">
-        <v>106</v>
-      </c>
-      <c r="D22" t="s">
-        <v>131</v>
       </c>
       <c r="E22" t="s">
         <v>94</v>
       </c>
       <c r="F22" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="G22" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="B23" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C23" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D23" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E23" t="s">
         <v>94</v>
       </c>
       <c r="F23" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="G23" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="B24" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C24" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D24" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E24" t="s">
         <v>94</v>
       </c>
       <c r="F24" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="G24" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="B25" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C25" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D25" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="E25" t="s">
         <v>94</v>
       </c>
       <c r="F25" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="G25" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="B26" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="C26" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D26" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E26" t="s">
         <v>94</v>
       </c>
       <c r="F26" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="G26" t="s">
-        <v>148</v>
-      </c>
-      <c r="H26" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="B27" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="C27" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D27" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="E27" t="s">
         <v>94</v>
       </c>
       <c r="F27" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="G27" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="B28" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="C28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D28" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="E28" t="s">
         <v>94</v>
       </c>
       <c r="F28" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="G28" t="s">
-        <v>148</v>
-      </c>
-      <c r="H28" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="B29" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="C29" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D29" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="E29" t="s">
         <v>94</v>
       </c>
       <c r="F29" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="G29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>147</v>
+      </c>
+      <c r="E30" t="s">
+        <v>111</v>
+      </c>
+      <c r="F30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
         <v>148</v>
+      </c>
+      <c r="E31" t="s">
+        <v>111</v>
+      </c>
+      <c r="F31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>149</v>
+      </c>
+      <c r="E32" t="s">
+        <v>111</v>
+      </c>
+      <c r="F32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>150</v>
+      </c>
+      <c r="E33" t="s">
+        <v>94</v>
+      </c>
+      <c r="F33" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B35" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E35" t="s">
+        <v>94</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>152</v>
+      </c>
+      <c r="E36" t="s">
+        <v>94</v>
+      </c>
+      <c r="F36" t="s">
+        <v>43</v>
+      </c>
+      <c r="G36" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <conditionalFormatting sqref="E16:E45 H26 F26:G29 H28">
+  <conditionalFormatting sqref="E16:E45 H26 F26:G29 H28 F30 G35">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
